--- a/Timo1.xlsx
+++ b/Timo1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Natha\Documents\MASTER1\LGCIV2041_numerical_analysis\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9B6878B-A39B-4F53-A895-FAECF168DC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DD0D40-0BBB-4539-8450-12B1284A1537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7529F8EA-9BD5-4594-8803-F9415467B554}"/>
   </bookViews>
@@ -99,40 +99,31 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>_temp_2</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>_temp_2</c:v>
+            <c:v>Timoshenko</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>xyToExcel!$A$1:$A$101</c:f>
               <c:numCache>
@@ -443,8 +434,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>xyToExcel!$B$1:$B$101</c:f>
               <c:numCache>
@@ -755,11 +746,661 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B534-48E7-B430-693F38C2685A}"/>
+              <c16:uniqueId val="{00000000-559D-4AAC-8F06-B253107AE533}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Euler-Bernoulli</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>xyToExcel!$A$1:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.998321533203125E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0000457763671875E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9998779296875E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.000091552734375E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9999237060546875E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0001373291015625E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.999969482421875E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.00018310546875E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0000152587890625E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.999847412109375E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1100006103515625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11999893188476563</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13000106811523438</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1399993896484375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15000152587890625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15999984741210938</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1699981689453125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18000030517578125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.18999862670898438</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20000076293945313</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20999908447265625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.220001220703125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.22999954223632813</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24000167846679688</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25999832153320313</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27000045776367188</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.279998779296875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.29000091552734375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29999923706054688</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31000137329101563</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.31999969482421875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.3300018310546875</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34000015258789063</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.34999847412109375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.3600006103515625</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.36999893188476563</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38000106811523438</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.3899993896484375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.40000152587890625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.40999984741210938</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.4199981689453125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43000030517578125</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.43999862670898438</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45000076293945313</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.45999908447265625</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.470001220703125</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.47999954223632813</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49000167846679688</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.50999832153320313</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52000045776367188</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.529998779296875</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54000091552734375</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.54999923706054688</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000137329101563</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999969482421875</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.5800018310546875</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59000015258789063</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.59999847412109375</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.6100006103515625</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.61999893188476563</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63000106811523438</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.6399993896484375</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65000152587890625</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.65999984741210938</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.6699981689453125</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68000030517578125</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.68999862670898438</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70000076293945313</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.70999908447265625</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.720001220703125</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.72999954223632813</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74000167846679688</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.75999832153320313</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77000045776367188</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.779998779296875</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79000091552734375</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.79999923706054688</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81000137329101563</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.81999969482421875</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.8300018310546875</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84000015258789063</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.84999847412109375</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.8600006103515625</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.86999893188476563</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88000106811523438</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.8899993896484375</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.90000152587890625</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.90999984741210938</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.9199981689453125</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93000030517578125</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.93999862670898438</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95000076293945313</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.95999908447265625</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.970001220703125</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.97999954223632813</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99000167846679688</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>xyToExcel!$D$1:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-1.9999999005476621E-32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.5914058917401235E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.8359249998620726E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.6249102082547324E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5326556024319871E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.3932568637974327E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.444640412908484E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.6856666813255288E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.1169680520833936E-7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.7371544193738373E-7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.5463815341645386E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.1545139386726078E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.3731588524024119E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.610709773558483E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8669493329070974E-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.1420426037366269E-6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.4357486836379394E-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.7481394226924749E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.0793062251177616E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.4289682844246272E-6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.7973634334775852E-6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4.1841722122626379E-6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.5896604206063785E-6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5.0134876801166683E-6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5.455948667076882E-6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-5.9166668506804854E-6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6.3957782003853936E-6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-6.893449153722031E-6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-7.4092595241381787E-6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-7.9435740190092474E-6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-8.4959547166363336E-6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-9.0667954282253049E-6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-9.6556195785524324E-6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.0262846444675233E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.0887991265917663E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.1531235031725373E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.2192807844257914E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.2872174920630641E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.3569827387982514E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.4285188626672607E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.5018777958175633E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.5770006939419545E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.6539122952963226E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.7326387023786083E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.8131171600543894E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.8954066035803407E-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.9794397303485312E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.0652782040997408E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.1528530851355754E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.242229129478801E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.3333333956543356E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.4261968064820394E-5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.5208537408616394E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.6172272555413656E-5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2.715388109209016E-5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-2.8152586310170591E-5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-2.9169124900363386E-5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-3.0202672860468738E-5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-3.1253992347046733E-5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-3.2322266633855179E-5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-3.3407835871912539E-5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-3.4511100238887593E-5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-3.5631193895824254E-5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-3.676894266391173E-5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-3.7923429772490636E-5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-3.9095510146580637E-5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-4.0284263377543539E-5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-4.1490111470920965E-5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-4.2713465518318117E-5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-4.3953376007266343E-5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-4.5210766984382644E-5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-4.648462709155865E-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-4.7775898565305397E-5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-4.9083577323472127E-5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-5.0408631068421528E-5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-5.1750001148320735E-5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-5.310816050041467E-5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-5.448362571769394E-5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-5.5875287216622382E-5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-5.7284185459138826E-5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-5.870921813766472E-5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-6.0151451179990545E-5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-6.1609724070876837E-5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-6.3085135479923338E-5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-6.4576539443805814E-5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-6.6084438003599644E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-6.760939140804112E-5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-6.9150213676039129E-5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-7.0708054408896714E-5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-7.2281669417861849E-5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-7.3872237408068031E-5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-7.5478521466720849E-5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-7.7101103670429438E-5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-7.874054426793009E-5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-8.0395584518555552E-5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-8.2067468611057848E-5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-8.3754857769235969E-5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-8.5459018009714782E-5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-8.7178625108208507E-5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-8.8914966909214854E-5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-9.0666668256744742E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-559D-4AAC-8F06-B253107AE533}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -771,84 +1412,300 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="599885599"/>
-        <c:axId val="1592844304"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="599885599"/>
+        <c:axId val="1490488175"/>
+        <c:axId val="1490473775"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1490488175"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>X distance along path</a:t>
+                  <a:rPr lang="fr-BE"/>
+                  <a:t>x</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="fr-BE" baseline="0"/>
+                  <a:t> [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-BE"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1592844304"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1490473775"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1592844304"/>
+        <c:axId val="1490473775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Displacement</a:t>
+                  <a:rPr lang="fr-BE"/>
+                  <a:t>u</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="fr-BE" baseline="-25000"/>
+                  <a:t>yo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-BE"/>
+                  <a:t>(x)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-BE" baseline="0"/>
+                  <a:t> [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-BE"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599885599"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1490488175"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -861,6 +1718,31 @@
     </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -869,27 +1751,583 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
+        <xdr:cNvPr id="3" name="Graphique 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A56323E-1F81-0FFF-229F-35CFC95E2909}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC443429-F8FC-56C9-260D-136F19ADA10B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,9 +2349,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -951,7 +2389,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1057,7 +2495,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1199,7 +2637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1207,818 +2645,1123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD92C3D-F6CA-4DE8-9C0A-09DBF6666329}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>-2.000000047484456E-32</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D1">
+        <v>-1.9999999005476621E-32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>9.998321533203125E-3</v>
       </c>
       <c r="B2">
         <v>-8.4871942362951813E-8</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>-9.5914058917401235E-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2.0000457763671875E-2</v>
       </c>
       <c r="B3">
         <v>-1.8894968434324255E-7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>-3.8359249998620726E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2.9998779296875E-2</v>
       </c>
       <c r="B4">
         <v>-3.1212007911562978E-7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>-8.6249102082547324E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4.000091552734375E-2</v>
       </c>
       <c r="B5">
         <v>-4.5444565444086038E-7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>-1.5326556024319871E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4.9999237060546875E-2</v>
       </c>
       <c r="B6">
         <v>-6.1578634813486133E-7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>-2.3932568637974327E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6.0001373291015625E-2</v>
       </c>
       <c r="B7">
         <v>-7.9623458759670029E-7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>-3.444640412908484E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6.999969482421875E-2</v>
       </c>
       <c r="B8">
         <v>-9.9561771094158757E-7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>-4.6856666813255288E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8.00018310546875E-2</v>
       </c>
       <c r="B9">
         <v>-1.2140569651819533E-6</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>-6.1169680520833936E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9.0000152587890625E-2</v>
       </c>
       <c r="B10">
         <v>-1.4513569794871728E-6</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>-7.7371544193738373E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9.999847412109375E-2</v>
       </c>
       <c r="B11">
         <v>-1.7075601590477163E-6</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>-9.5463815341645386E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.1100006103515625</v>
       </c>
       <c r="B12">
         <v>-1.9827450614684494E-6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>-1.1545139386726078E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.11999893188476563</v>
       </c>
       <c r="B13">
         <v>-2.2766705569665646E-6</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>-1.3731588524024119E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.13000106811523438</v>
       </c>
       <c r="B14">
         <v>-2.5895315047819167E-6</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>-1.610709773558483E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.1399993896484375</v>
       </c>
       <c r="B15">
         <v>-2.9210516458988423E-6</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>-1.8669493329070974E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.15000152587890625</v>
       </c>
       <c r="B16">
         <v>-3.271454033892951E-6</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>-2.1420426037366269E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.15999984741210938</v>
       </c>
       <c r="B17">
         <v>-3.6404403545020614E-6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>-2.4357486836379394E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.1699981689453125</v>
       </c>
       <c r="B18">
         <v>-4.028112471132772E-6</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>-2.7481394226924749E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.18000030517578125</v>
       </c>
       <c r="B19">
         <v>-4.434588390722638E-6</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>-3.0793062251177616E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.18999862670898438</v>
       </c>
       <c r="B20">
         <v>-4.8595311454846524E-6</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>-3.4289682844246272E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.20000076293945313</v>
       </c>
       <c r="B21">
         <v>-5.3032363211968914E-6</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>-3.7973634334775852E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.20999908447265625</v>
       </c>
       <c r="B22">
         <v>-5.7653255680634174E-6</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>-4.1841722122626379E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.220001220703125</v>
       </c>
       <c r="B23">
         <v>-6.2461226661980618E-6</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>-4.5896604206063785E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.22999954223632813</v>
       </c>
       <c r="B24">
         <v>-6.7452306211635005E-6</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>-5.0134876801166683E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.24000167846679688</v>
       </c>
       <c r="B25">
         <v>-7.2630014074093197E-6</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>-5.455948667076882E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.25</v>
       </c>
       <c r="B26">
         <v>-7.798999831720721E-6</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <v>-5.9166668506804854E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.25999832153320313</v>
       </c>
       <c r="B27">
         <v>-8.3533923316281289E-6</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <v>-6.3957782003853936E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.27000045776367188</v>
       </c>
       <c r="B28">
         <v>-8.9263730842503719E-6</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D28">
+        <v>-6.893449153722031E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.279998779296875</v>
       </c>
       <c r="B29">
         <v>-9.5174636953743175E-6</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D29">
+        <v>-7.4092595241381787E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.29000091552734375</v>
       </c>
       <c r="B30">
         <v>-1.0127087989530992E-5</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <v>-7.9435740190092474E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.29999923706054688</v>
       </c>
       <c r="B31">
         <v>-1.0754749382613227E-5</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <v>-8.4959547166363336E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.31000137329101563</v>
       </c>
       <c r="B32">
         <v>-1.1400899893487804E-5</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <v>-9.0667954282253049E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.31999969482421875</v>
       </c>
       <c r="B33">
         <v>-1.2065003829775378E-5</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D33">
+        <v>-9.6556195785524324E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.3300018310546875</v>
       </c>
       <c r="B34">
         <v>-1.2747540495183785E-5</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D34">
+        <v>-1.0262846444675233E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.34000015258789063</v>
       </c>
       <c r="B35">
         <v>-1.3447966011881363E-5</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D35">
+        <v>-1.0887991265917663E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.34999847412109375</v>
       </c>
       <c r="B36">
         <v>-1.4166490473144222E-5</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D36">
+        <v>-1.1531235031725373E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.3600006103515625</v>
       </c>
       <c r="B37">
         <v>-1.4903373084962368E-5</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D37">
+        <v>-1.2192807844257914E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0.36999893188476563</v>
       </c>
       <c r="B38">
         <v>-1.5658020856790245E-5</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D38">
+        <v>-1.2872174920630641E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0.38000106811523438</v>
       </c>
       <c r="B39">
         <v>-1.6430982213933021E-5</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D39">
+        <v>-1.3569827387982514E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.3899993896484375</v>
       </c>
       <c r="B40">
         <v>-1.7221624148078263E-5</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D40">
+        <v>-1.4285188626672607E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.40000152587890625</v>
       </c>
       <c r="B41">
         <v>-1.8030523278866895E-5</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D41">
+        <v>-1.5018777958175633E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.40999984741210938</v>
       </c>
       <c r="B42">
         <v>-1.8857032046071254E-5</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D42">
+        <v>-1.5770006939419545E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.4199981689453125</v>
       </c>
       <c r="B43">
         <v>-1.9701430574059486E-5</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D43">
+        <v>-1.6539122952963226E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0.43000030517578125</v>
       </c>
       <c r="B44">
         <v>-2.0564002625178546E-5</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D44">
+        <v>-1.7326387023786083E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0.43999862670898438</v>
       </c>
       <c r="B45">
         <v>-2.1444067897391506E-5</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D45">
+        <v>-1.8131171600543894E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0.45000076293945313</v>
       </c>
       <c r="B46">
         <v>-2.2342272131936625E-5</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D46">
+        <v>-1.8954066035803407E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0.45999908447265625</v>
       </c>
       <c r="B47">
         <v>-2.3257884095073678E-5</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D47">
+        <v>-1.9794397303485312E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0.470001220703125</v>
       </c>
       <c r="B48">
         <v>-2.4191576812881976E-5</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D48">
+        <v>-2.0652782040997408E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0.47999954223632813</v>
       </c>
       <c r="B49">
         <v>-2.5142608137684874E-5</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D49">
+        <v>-2.1528530851355754E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0.49000167846679688</v>
       </c>
       <c r="B50">
         <v>-2.6111678380402736E-5</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D50">
+        <v>-2.242229129478801E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.5</v>
       </c>
       <c r="B51">
         <v>-2.7097999918623827E-5</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D51">
+        <v>-2.3333333956543356E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.50999832153320313</v>
       </c>
       <c r="B52">
         <v>-2.8101916541345417E-5</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D52">
+        <v>-2.4261968064820394E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.52000045776367188</v>
       </c>
       <c r="B53">
         <v>-2.9123795684427023E-5</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D53">
+        <v>-2.5208537408616394E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.529998779296875</v>
       </c>
       <c r="B54">
         <v>-3.016280970769003E-5</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D54">
+        <v>-2.6172272555413656E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.54000091552734375</v>
       </c>
       <c r="B55">
         <v>-3.1219726224662736E-5</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D55">
+        <v>-2.715388109209016E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.54999923706054688</v>
       </c>
       <c r="B56">
         <v>-3.2293712138198316E-5</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D56">
+        <v>-2.8152586310170591E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.56000137329101563</v>
       </c>
       <c r="B57">
         <v>-3.3385560527676716E-5</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D57">
+        <v>-2.9169124900363386E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.56999969482421875</v>
       </c>
       <c r="B58">
         <v>-3.4494391002226621E-5</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D58">
+        <v>-3.0202672860468738E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.5800018310546875</v>
       </c>
       <c r="B59">
         <v>-3.5621022107079625E-5</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D59">
+        <v>-3.1253992347046733E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.59000015258789063</v>
       </c>
       <c r="B60">
         <v>-3.6764573451364413E-5</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D60">
+        <v>-3.2322266633855179E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.59999847412109375</v>
       </c>
       <c r="B61">
         <v>-3.7925423384876922E-5</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D61">
+        <v>-3.3407835871912539E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.6100006103515625</v>
       </c>
       <c r="B62">
         <v>-3.9103997551137581E-5</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D62">
+        <v>-3.4511100238887593E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.61999893188476563</v>
       </c>
       <c r="B63">
         <v>-4.0299371903529391E-5</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D63">
+        <v>-3.5631193895824254E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.63000106811523438</v>
       </c>
       <c r="B64">
         <v>-4.1512430470902473E-5</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D64">
+        <v>-3.676894266391173E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.6399993896484375</v>
       </c>
       <c r="B65">
         <v>-4.2742198274936527E-5</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D65">
+        <v>-3.7923429772490636E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0.65000152587890625</v>
       </c>
       <c r="B66">
         <v>-4.3989588448312134E-5</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D66">
+        <v>-3.9095510146580637E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0.65999984741210938</v>
       </c>
       <c r="B67">
         <v>-4.5253622374730185E-5</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D67">
+        <v>-4.0284263377543539E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0.6699981689453125</v>
       </c>
       <c r="B68">
         <v>-4.653475116356276E-5</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D68">
+        <v>-4.1490111470920965E-5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0.68000030517578125</v>
       </c>
       <c r="B69">
         <v>-4.7833415010245517E-5</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D69">
+        <v>-4.2713465518318117E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.68999862670898438</v>
       </c>
       <c r="B70">
         <v>-4.9148606194648892E-5</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D70">
+        <v>-4.3953376007266343E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.70000076293945313</v>
       </c>
       <c r="B71">
         <v>-5.0481306971050799E-5</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D71">
+        <v>-4.5210766984382644E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0.70999908447265625</v>
       </c>
       <c r="B72">
         <v>-5.1830444135703146E-5</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D72">
+        <v>-4.648462709155865E-5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0.720001220703125</v>
       </c>
       <c r="B73">
         <v>-5.3197029046714306E-5</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D73">
+        <v>-4.7775898565305397E-5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0.72999954223632813</v>
       </c>
       <c r="B74">
         <v>-5.4579984862357378E-5</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D74">
+        <v>-4.9083577323472127E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.74000167846679688</v>
       </c>
       <c r="B75">
         <v>-5.5980352044571191E-5</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D75">
+        <v>-5.0408631068421528E-5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.75</v>
       </c>
       <c r="B76">
         <v>-5.739699918194674E-5</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D76">
+        <v>-5.1750001148320735E-5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0.75999832153320313</v>
       </c>
       <c r="B77">
         <v>-5.883044286747463E-5</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D77">
+        <v>-5.310816050041467E-5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0.77000045776367188</v>
       </c>
       <c r="B78">
         <v>-6.0281217884039506E-5</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D78">
+        <v>-5.448362571769394E-5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0.779998779296875</v>
       </c>
       <c r="B79">
         <v>-6.1748156440444291E-5</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D79">
+        <v>-5.5875287216622382E-5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0.79000091552734375</v>
       </c>
       <c r="B80">
         <v>-6.3232364482246339E-5</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D80">
+        <v>-5.7284185459138826E-5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.79999923706054688</v>
       </c>
       <c r="B81">
         <v>-6.473268149420619E-5</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D81">
+        <v>-5.870921813766472E-5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.81000137329101563</v>
       </c>
       <c r="B82">
         <v>-6.6250220697838813E-5</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D82">
+        <v>-6.0151451179990545E-5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.81999969482421875</v>
       </c>
       <c r="B83">
         <v>-6.7783774284180254E-5</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D83">
+        <v>-6.1609724070876837E-5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.8300018310546875</v>
       </c>
       <c r="B84">
         <v>-6.9334499130491167E-5</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D84">
+        <v>-6.3085135479923338E-5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.84000015258789063</v>
       </c>
       <c r="B85">
         <v>-7.0901180151849985E-5</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D85">
+        <v>-6.4576539443805814E-5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.84999847412109375</v>
       </c>
       <c r="B86">
         <v>-7.2484363045077771E-5</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D86">
+        <v>-6.6084438003599644E-5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.8600006103515625</v>
       </c>
       <c r="B87">
         <v>-7.4084622610826045E-5</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D87">
+        <v>-6.760939140804112E-5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.86999893188476563</v>
       </c>
       <c r="B88">
         <v>-7.5700721936300397E-5</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D88">
+        <v>-6.9150213676039129E-5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>0.88000106811523438</v>
       </c>
       <c r="B89">
         <v>-7.7333876106422395E-5</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D89">
+        <v>-7.0708054408896714E-5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0.8899993896484375</v>
       </c>
       <c r="B90">
         <v>-7.8982775448821485E-5</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D90">
+        <v>-7.2281669417861849E-5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0.90000152587890625</v>
       </c>
       <c r="B91">
         <v>-8.0648649600334466E-5</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D91">
+        <v>-7.3872237408068031E-5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0.90999984741210938</v>
       </c>
       <c r="B92">
         <v>-8.2330210716463625E-5</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D92">
+        <v>-7.5478521466720849E-5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0.9199981689453125</v>
       </c>
       <c r="B93">
         <v>-8.402807725360617E-5</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D93">
+        <v>-7.7101103670429438E-5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0.93000030517578125</v>
       </c>
       <c r="B94">
         <v>-8.5742831288371235E-5</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D94">
+        <v>-7.874054426793009E-5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>0.93999862670898438</v>
       </c>
       <c r="B95">
         <v>-8.7473148596473038E-5</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D95">
+        <v>-8.0395584518555552E-5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>0.95000076293945313</v>
       </c>
       <c r="B96">
         <v>-8.9220338850282133E-5</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D96">
+        <v>-8.2067468611057848E-5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>0.95999908447265625</v>
       </c>
       <c r="B97">
         <v>-9.0983005065936595E-5</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D97">
+        <v>-8.3754857769235969E-5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>0.970001220703125</v>
       </c>
       <c r="B98">
         <v>-9.2762478743679821E-5</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D98">
+        <v>-8.5459018009714782E-5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>0.97999954223632813</v>
       </c>
       <c r="B99">
         <v>-9.4557362899649888E-5</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D99">
+        <v>-8.7178625108208507E-5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>0.99000167846679688</v>
       </c>
       <c r="B100">
         <v>-9.6369018137920648E-5</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D100">
+        <v>-8.8914966909214854E-5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1</v>
       </c>
       <c r="B101">
         <v>-9.8195996542926878E-5</v>
+      </c>
+      <c r="D101">
+        <v>-9.0666668256744742E-5</v>
       </c>
     </row>
   </sheetData>
